--- a/evidence_templates.xlsx
+++ b/evidence_templates.xlsx
@@ -426,7 +426,7 @@
     <t>1.1.1</t>
   </si>
   <si>
-    <t>أداء الواجبات</t>
+    <t>أداء الواجبات الوظيفية</t>
   </si>
   <si>
     <t>الحضور والانصراف</t>
@@ -510,7 +510,7 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>التطوير المهني</t>
+    <t>التفاعل مع المجتمع المهني</t>
   </si>
   <si>
     <t>زيارة معلم</t>
@@ -561,7 +561,7 @@
     <t>3.1.1</t>
   </si>
   <si>
-    <t>التخطيط والتنفيذ</t>
+    <t>التفاعل مع أولياء الأمور</t>
   </si>
   <si>
     <t>درس نموذجي</t>
@@ -1381,7 +1381,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -2785,7 +2785,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -3211,6 +3211,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>